--- a/bots/crawl_ch/output/bread_coop_2023-01-29.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-29.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig ausgewallt 28x38cm 4.40 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig ausgewallt 28x38cm - Online kein Bestand 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -4857,13 +4857,13 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Old El Paso Wrap Tortillas 6 Stück 20% ab 2 Stück Aktion 5.45 Schweizer Franken</t>
+          <t>Old El Paso Wrap Tortillas 6 Stück 20% ab 2 Aktion 5.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -6725,7 +6725,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -6932,7 +6932,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7658,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8214,7 +8214,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8360,7 +8360,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8502,7 +8502,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8644,7 +8644,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8713,7 +8713,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8782,7 +8782,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9066,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -9784,45 +9784,45 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3040714</t>
+          <t>3023436</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber gefüllt</t>
+          <t>Old El Paso Fajita Kit</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-gefuellt/p/3040714</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit/p/3023436</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E132" t="n">
         <v>4.5</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.38/100g</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -9842,60 +9842,56 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber gefüllt 1.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Old El Paso Fajita Kit 20% ab 2 Aktion 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>3023436</t>
+          <t>3040714</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit</t>
+          <t>Appenzeller Bärli-Biber gefüllt</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit/p/3023436</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-gefuellt/p/3040714</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E133" t="n">
         <v>4.5</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>1.38/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9905,7 +9901,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -9915,18 +9911,22 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit 20% ab 2 Aktion 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr"/>
+          <t>Appenzeller Bärli-Biber gefüllt 1.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -10210,7 +10210,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -10490,7 +10490,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -10632,7 +10632,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -10774,7 +10774,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12186,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -12328,7 +12328,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -12543,7 +12543,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -12612,7 +12612,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -12685,7 +12685,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -12754,7 +12754,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -12823,7 +12823,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -12896,7 +12896,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -13042,7 +13042,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -13188,7 +13188,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -13330,7 +13330,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -13468,7 +13468,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -13610,7 +13610,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -13756,7 +13756,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -13825,7 +13825,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -13898,7 +13898,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -13967,7 +13967,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -14105,7 +14105,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -14178,7 +14178,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -14247,7 +14247,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -14389,7 +14389,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -14888,45 +14888,45 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>6668457</t>
+          <t>7069611</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g</t>
+          <t>Cocktail Blinis 20 Stück</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-eckig-ausgewallt-2x310g/p/6668457</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Blini</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>0.53/100g</t>
+          <t>3.75/100g</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14936,7 +14936,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14946,60 +14946,60 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g 3.30 Schweizer Franken</t>
+          <t>Cocktail Blinis 20 Stück 6.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>7069611</t>
+          <t>6668457</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück</t>
+          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-eckig-ausgewallt-2x310g/p/6668457</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Blini</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>3.75/100g</t>
+          <t>0.53/100g</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15019,22 +15019,22 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück 6.30 Schweizer Franken</t>
+          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -15249,7 +15249,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -15318,7 +15318,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -15391,7 +15391,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -15533,7 +15533,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -15606,7 +15606,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -15675,7 +15675,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -15744,7 +15744,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -15813,7 +15813,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -15882,7 +15882,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -15951,7 +15951,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -16170,7 +16170,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -16243,7 +16243,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -16312,7 +16312,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -16381,7 +16381,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -16523,7 +16523,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -16592,45 +16592,45 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>3431131</t>
+          <t>5719276</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E228" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16650,56 +16650,60 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N228" t="inlineStr"/>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>5719276</t>
+          <t>3431131</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
+          <t>Betty Bossi Spitzbube 2x  80g</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E229" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16709,7 +16713,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16719,22 +16723,18 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Spitzbube 2x  80g 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -16803,7 +16803,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -16872,7 +16872,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -16941,7 +16941,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17010,7 +17010,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17152,7 +17152,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17221,7 +17221,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17294,7 +17294,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17505,7 +17505,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17574,7 +17574,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17643,7 +17643,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17716,7 +17716,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17787,7 +17787,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17856,7 +17856,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17925,7 +17925,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -17998,7 +17998,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -18067,7 +18067,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -18136,7 +18136,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -18209,7 +18209,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -18278,7 +18278,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -18347,7 +18347,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -18416,7 +18416,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -18485,7 +18485,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -18763,7 +18763,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -18832,7 +18832,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -18905,7 +18905,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -18978,7 +18978,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -19051,7 +19051,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -19120,7 +19120,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -19193,7 +19193,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -19266,7 +19266,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -19339,7 +19339,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -19412,7 +19412,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -19485,7 +19485,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -19554,7 +19554,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -19623,7 +19623,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -19696,7 +19696,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -19765,7 +19765,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -19834,7 +19834,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -19903,7 +19903,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -19976,7 +19976,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -20045,7 +20045,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -20118,7 +20118,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -20187,7 +20187,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -20256,7 +20256,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -20325,7 +20325,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -20398,7 +20398,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -20467,7 +20467,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -20536,7 +20536,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -20603,7 +20603,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -20676,7 +20676,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -20749,7 +20749,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -20822,7 +20822,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -20895,7 +20895,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -20968,7 +20968,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -21035,7 +21035,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -21104,7 +21104,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -21173,7 +21173,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -21242,7 +21242,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -21311,7 +21311,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -21457,7 +21457,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -21526,7 +21526,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -21595,7 +21595,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -21664,7 +21664,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -21733,7 +21733,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -21802,7 +21802,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -21871,7 +21871,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -21940,7 +21940,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -22009,7 +22009,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -22078,7 +22078,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -22147,45 +22147,45 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>6313852</t>
+          <t>6387361</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits</t>
+          <t>Karma Snack Schwarzer Reis</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E307" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22195,7 +22195,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22205,42 +22205,46 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N307" t="inlineStr"/>
+          <t>Karma Snack Schwarzer Reis 20% ab 2 Aktion 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>6387361</t>
+          <t>3958888</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis</t>
+          <t>Prix Garantie Madeleines 17 Stück</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E308" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -22249,12 +22253,12 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22264,7 +22268,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22274,46 +22278,40 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis 20% ab 2 Aktion 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N308" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>3958888</t>
+          <t>6629583</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück</t>
+          <t>Marmor Cake</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
-        </is>
-      </c>
-      <c r="D309" t="n">
-        <v>25</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr"/>
       <c r="E309" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -22322,12 +22320,12 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22337,7 +22335,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22352,34 +22350,34 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
+          <t>Marmor Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6313768</t>
+          <t>6313852</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales</t>
+          <t>Roland Petite Pause Guezli Fruits</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E310" t="n">
         <v>4.5</v>
@@ -22416,54 +22414,56 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales 2.80 Schweizer Franken</t>
+          <t>Roland Petite Pause Guezli Fruits 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>6629583</t>
+          <t>6313768</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Marmor Cake</t>
+          <t>Roland Petite Pause Choco Céréales</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>2</v>
+      </c>
       <c r="E311" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22473,7 +22473,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22483,18 +22483,18 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Marmor Cake 6.20 Schweizer Franken</t>
+          <t>Roland Petite Pause Choco Céréales 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -22563,7 +22563,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -22636,7 +22636,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -22709,7 +22709,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -22778,7 +22778,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -22851,7 +22851,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -22924,7 +22924,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -22993,7 +22993,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -23064,7 +23064,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -23137,7 +23137,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -23210,45 +23210,45 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>6500790</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E322" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23258,7 +23258,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23268,56 +23268,56 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>6500790</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>St.Michel Mini Brownies Chocolat</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E323" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23327,7 +23327,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23337,18 +23337,18 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
+          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -23417,7 +23417,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -23486,7 +23486,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -23559,7 +23559,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -23628,7 +23628,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -23697,7 +23697,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -23766,24 +23766,24 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>5910015</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Country Cracker Sesam</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -23799,12 +23799,12 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23814,7 +23814,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23824,56 +23824,56 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
+          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>5910015</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E331" t="n">
         <v>5</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23883,7 +23883,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23893,56 +23893,60 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N331" t="inlineStr"/>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E332" t="n">
         <v>5</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -23952,7 +23956,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -23962,60 +23966,56 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N332" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>5910012</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Country Cracker Nature</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E333" t="n">
         <v>5</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24025,7 +24025,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24035,56 +24035,56 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
+          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>5910012</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Country Cracker Nature</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E334" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24094,7 +24094,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24104,46 +24104,50 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N334" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E335" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -24153,7 +24157,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24163,7 +24167,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -24173,60 +24177,60 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>['chilled', 'gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>6729458</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Roland Sport High Protein Choco</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="E336" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24236,7 +24240,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -24246,60 +24250,56 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N336" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>6729458</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D337" t="n">
         <v>4</v>
       </c>
       <c r="E337" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24309,7 +24309,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24324,13 +24324,13 @@
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -24399,7 +24399,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -24470,7 +24470,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -24539,7 +24539,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -24606,7 +24606,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -24746,7 +24746,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -24815,7 +24815,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -24884,45 +24884,45 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24932,7 +24932,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24942,56 +24942,56 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25001,7 +25001,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25011,18 +25011,18 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -25091,45 +25091,45 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>3570059</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
         </is>
       </c>
       <c r="D349" t="n">
+        <v>1</v>
+      </c>
+      <c r="E349" t="n">
         <v>5</v>
       </c>
-      <c r="E349" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Croustipâte</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25139,7 +25139,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25149,60 +25149,54 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N349" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
-        </is>
-      </c>
-      <c r="D350" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
       <c r="E350" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25212,7 +25206,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -25222,18 +25216,18 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -25302,43 +25296,45 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>3570059</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>5</v>
+      </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Croustipâte</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25348,7 +25344,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25358,18 +25354,22 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N352" t="inlineStr"/>
+          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -25442,7 +25442,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -25511,7 +25511,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -25584,45 +25584,45 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E356" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25632,7 +25632,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -25642,60 +25642,56 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N356" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E357" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25705,7 +25701,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25715,18 +25711,22 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N357" t="inlineStr"/>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -25799,45 +25799,45 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6857773</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E359" t="n">
         <v>5</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25847,7 +25847,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25857,56 +25857,56 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>6857773</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Dar-Vida Choco au lait</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25916,7 +25916,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25926,18 +25926,18 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -26006,7 +26006,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -26075,7 +26075,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -26144,7 +26144,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -26211,45 +26211,45 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E365" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26259,7 +26259,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26274,51 +26274,55 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N365" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E366" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26328,7 +26332,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26343,17 +26347,13 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -26422,7 +26422,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -26491,7 +26491,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -26562,7 +26562,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -26635,7 +26635,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -26708,7 +26708,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -26775,45 +26775,43 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>5995949</t>
+          <t>6561501</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Madeleines Marmor 2x220g</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/madeleines-marmor-2x220g/p/5995949</t>
-        </is>
-      </c>
-      <c r="D373" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
       <c r="E373" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>1.07/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26823,7 +26821,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26838,49 +26836,55 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Madeleines Marmor 2x220g 20% Aktion 4.70 Schweizer Franken statt 5.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N373" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6561501</t>
+          <t>5995949</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
+          <t>Madeleines Marmor 2x220g</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/madeleines-marmor-2x220g/p/5995949</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>1</v>
+      </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>1.07/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26890,7 +26894,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26905,17 +26909,13 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N374" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Madeleines Marmor 2x220g 20% Aktion 4.70 Schweizer Franken statt 5.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -27061,45 +27061,45 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E377" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27109,7 +27109,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27119,22 +27119,18 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N377" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -27203,57 +27199,55 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
-        </is>
-      </c>
-      <c r="D379" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr"/>
       <c r="E379" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>4.80/100g</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
           <t>4.80</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>3.20/100g</t>
-        </is>
-      </c>
-      <c r="I379" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J379" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>100g</t>
@@ -27261,54 +27255,56 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
-        </is>
-      </c>
-      <c r="D380" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>1</v>
+      </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27318,7 +27314,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27328,18 +27324,22 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N380" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -27408,7 +27408,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -27477,43 +27477,45 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D383" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>1</v>
+      </c>
       <c r="E383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27523,7 +27525,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27533,56 +27535,58 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N383" t="inlineStr"/>
+          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
-        </is>
-      </c>
-      <c r="D384" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr"/>
       <c r="E384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -27592,7 +27596,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27602,22 +27606,18 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N384" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Old el Paso BBQ Pocket Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -27686,7 +27686,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -27759,45 +27759,43 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>6102496</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Fairtrade Madeleines Schokolade 2x220g</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fairtrade-madeleines-schokolade-2x220g/p/6102496</t>
-        </is>
-      </c>
-      <c r="D387" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr"/>
       <c r="E387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>1.07/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27807,7 +27805,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27817,54 +27815,56 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Fairtrade Madeleines Schokolade 2x220g 20% Aktion 4.70 Schweizer Franken statt 5.90 Schweizer Franken</t>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>6102496</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>Fairtrade Madeleines Schokolade 2x220g</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fairtrade-madeleines-schokolade-2x220g/p/6102496</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>1.07/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -27874,7 +27874,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27884,18 +27884,18 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>Fairtrade Madeleines Schokolade 2x220g 20% Aktion 4.70 Schweizer Franken statt 5.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -27964,7 +27964,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -28033,7 +28033,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -28102,7 +28102,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -28171,7 +28171,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
@@ -28238,7 +28238,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-29 06:49:20</t>
+          <t>2023-01-29 12:55:25</t>
         </is>
       </c>
     </row>
